--- a/libyadfcodebook.xlsx
+++ b/libyadfcodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A60732-F711-4C51-8AC4-E607842308BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF5E48-96E5-4EC8-8475-159DFA2D8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="135" windowWidth="18390" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
